--- a/результаты.xlsx
+++ b/результаты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\OneDrive - riverw\ДАША\ВУЗ\6 семестр\МО\лаба 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F69F87D-C62E-4794-BF07-56E4D7243415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33B3345-D54D-4244-8B63-520B1529B9C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5E923C18-8025-4069-AB5B-A717726E62F1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5E923C18-8025-4069-AB5B-A717726E62F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1805,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C5B466-B763-4B5E-945C-A3BBBA042BDB}">
   <dimension ref="A1:AP196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP33" sqref="AP33"/>
+    <sheetView tabSelected="1" topLeftCell="V32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL32" sqref="AL32:AP66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4913,10 +4913,10 @@
         <v>1.0000000000000001E-9</v>
       </c>
       <c r="AO34" s="4">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="AP34" s="4">
-        <v>3.9999999959999899</v>
+        <v>63.999999983999999</v>
       </c>
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.25">
@@ -5014,10 +5014,10 @@
         <v>5.0000000000000001E-9</v>
       </c>
       <c r="AO35" s="4">
-        <v>3.9999999959999899</v>
+        <v>63.999999983999999</v>
       </c>
       <c r="AP35" s="4">
-        <v>3.9999999800000001</v>
+        <v>63.999999919999901</v>
       </c>
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.25">
@@ -5115,10 +5115,10 @@
         <v>1.3000000000000001E-8</v>
       </c>
       <c r="AO36" s="4">
-        <v>3.9999999800000001</v>
+        <v>63.999999919999901</v>
       </c>
       <c r="AP36" s="4">
-        <v>3.9999999480000001</v>
+        <v>63.999999791999997</v>
       </c>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.25">
@@ -5216,10 +5216,10 @@
         <v>2.9000000000000002E-8</v>
       </c>
       <c r="AO37" s="4">
-        <v>3.9999999480000001</v>
+        <v>63.999999791999997</v>
       </c>
       <c r="AP37" s="4">
-        <v>3.9999998840000002</v>
+        <v>63.999999535999997</v>
       </c>
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.25">
@@ -5317,10 +5317,10 @@
         <v>6.1000000000000004E-8</v>
       </c>
       <c r="AO38" s="4">
-        <v>3.9999998840000002</v>
+        <v>63.999999535999997</v>
       </c>
       <c r="AP38" s="4">
-        <v>3.9999997559999998</v>
+        <v>63.999999023999997</v>
       </c>
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.25">
@@ -5418,10 +5418,10 @@
         <v>1.2499999999999999E-7</v>
       </c>
       <c r="AO39" s="4">
-        <v>3.9999997559999998</v>
+        <v>63.999999023999997</v>
       </c>
       <c r="AP39" s="4">
-        <v>3.9999995000000101</v>
+        <v>63.999997999999998</v>
       </c>
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.25">
@@ -5519,10 +5519,10 @@
         <v>2.53E-7</v>
       </c>
       <c r="AO40" s="4">
-        <v>3.9999995000000101</v>
+        <v>63.999997999999998</v>
       </c>
       <c r="AP40" s="4">
-        <v>3.9999989880000602</v>
+        <v>63.999995951999999</v>
       </c>
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.25">
@@ -5620,10 +5620,10 @@
         <v>5.0900000000000002E-7</v>
       </c>
       <c r="AO41" s="4">
-        <v>3.9999989880000602</v>
+        <v>63.999995951999999</v>
       </c>
       <c r="AP41" s="4">
-        <v>3.9999979640002499</v>
+        <v>63.9999918560002</v>
       </c>
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.25">
@@ -5703,10 +5703,10 @@
         <v>1.0210000000000001E-6</v>
       </c>
       <c r="AO42" s="4">
-        <v>3.9999979640002499</v>
+        <v>63.9999918560002</v>
       </c>
       <c r="AP42" s="4">
-        <v>3.9999959160010401</v>
+        <v>63.999983664001</v>
       </c>
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.25">
@@ -5806,10 +5806,10 @@
         <v>2.0449999999999999E-6</v>
       </c>
       <c r="AO43" s="4">
-        <v>3.9999959160010401</v>
+        <v>63.999983664001</v>
       </c>
       <c r="AP43" s="4">
-        <v>3.9999918200041802</v>
+        <v>63.9999672800041</v>
       </c>
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.25">
@@ -5907,10 +5907,10 @@
         <v>4.0929999999999996E-6</v>
       </c>
       <c r="AO44" s="4">
-        <v>3.9999918200041802</v>
+        <v>63.9999672800041</v>
       </c>
       <c r="AP44" s="4">
-        <v>3.99998362801675</v>
+        <v>63.999934512016701</v>
       </c>
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.25">
@@ -6008,10 +6008,10 @@
         <v>8.1889999999999905E-6</v>
       </c>
       <c r="AO45" s="4">
-        <v>3.99998362801675</v>
+        <v>63.999934512016701</v>
       </c>
       <c r="AP45" s="4">
-        <v>3.99996724406705</v>
+        <v>63.999868976066999</v>
       </c>
     </row>
     <row r="46" spans="1:42" x14ac:dyDescent="0.25">
@@ -6109,10 +6109,10 @@
         <v>1.63809999999999E-5</v>
       </c>
       <c r="AO46" s="4">
-        <v>3.99996724406705</v>
+        <v>63.999868976066999</v>
       </c>
       <c r="AP46" s="4">
-        <v>3.9999344762683302</v>
+        <v>63.999737904268301</v>
       </c>
     </row>
     <row r="47" spans="1:42" x14ac:dyDescent="0.25">
@@ -6210,10 +6210,10 @@
         <v>3.2765000000000002E-5</v>
       </c>
       <c r="AO47" s="4">
-        <v>3.9999344762683302</v>
+        <v>63.999737904268301</v>
       </c>
       <c r="AP47" s="4">
-        <v>3.9998689410735402</v>
+        <v>63.999475761073498</v>
       </c>
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.25">
@@ -6311,10 +6311,10 @@
         <v>6.5532999999999998E-5</v>
       </c>
       <c r="AO48" s="4">
-        <v>3.9998689410735402</v>
+        <v>63.999475761073498</v>
       </c>
       <c r="AP48" s="4">
-        <v>3.99973787229457</v>
+        <v>63.998951476294501</v>
       </c>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.25">
@@ -6412,10 +6412,10 @@
         <v>1.3106899999999999E-4</v>
       </c>
       <c r="AO49" s="4">
-        <v>3.99973787229457</v>
+        <v>63.998951476294501</v>
       </c>
       <c r="AP49" s="4">
-        <v>3.9994757411790798</v>
+        <v>63.997902913178997</v>
       </c>
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.25">
@@ -6513,10 +6513,10 @@
         <v>2.6214100000000002E-4</v>
       </c>
       <c r="AO50" s="4">
-        <v>3.9994757411790798</v>
+        <v>63.997902913178997</v>
       </c>
       <c r="AP50" s="4">
-        <v>3.9989515047178998</v>
+        <v>63.995805812717897</v>
       </c>
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.25">
@@ -6614,10 +6614,10 @@
         <v>5.2428499999999999E-4</v>
       </c>
       <c r="AO51" s="4">
-        <v>3.9989515047178998</v>
+        <v>63.995805812717897</v>
       </c>
       <c r="AP51" s="4">
-        <v>3.9979031348747598</v>
+        <v>63.991611714874701</v>
       </c>
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.25">
@@ -6697,10 +6697,10 @@
         <v>1.0485729999999999E-3</v>
       </c>
       <c r="AO52" s="4">
-        <v>3.9979031348747598</v>
+        <v>63.991611714874701</v>
       </c>
       <c r="AP52" s="4">
-        <v>3.9958068075053301</v>
+        <v>63.9832239315053</v>
       </c>
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.25">
@@ -6800,10 +6800,10 @@
         <v>2.097149E-3</v>
       </c>
       <c r="AO53" s="4">
-        <v>3.9958068075053301</v>
+        <v>63.9832239315053</v>
       </c>
       <c r="AP53" s="4">
-        <v>3.9916158020339201</v>
+        <v>63.966450014033903</v>
       </c>
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.25">
@@ -6901,10 +6901,10 @@
         <v>4.1943010000000001E-3</v>
       </c>
       <c r="AO54" s="4">
-        <v>3.9916158020339201</v>
+        <v>63.966450014033903</v>
       </c>
       <c r="AP54" s="4">
-        <v>3.98324038816087</v>
+        <v>63.932908776160801</v>
       </c>
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.25">
@@ -7002,10 +7002,10 @@
         <v>8.3886050000000004E-3</v>
       </c>
       <c r="AO55" s="4">
-        <v>3.98324038816087</v>
+        <v>63.932908776160801</v>
       </c>
       <c r="AP55" s="4">
-        <v>3.9665159486938402</v>
+        <v>63.865852688693799</v>
       </c>
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.25">
@@ -7085,10 +7085,10 @@
         <v>1.6777212999999999E-2</v>
       </c>
       <c r="AO56" s="4">
-        <v>3.9665159486938402</v>
+        <v>63.865852688693799</v>
       </c>
       <c r="AP56" s="4">
-        <v>3.93317262287604</v>
+        <v>63.731846066876003</v>
       </c>
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.25">
@@ -7188,10 +7188,10 @@
         <v>3.3554428999999997E-2</v>
       </c>
       <c r="AO57" s="4">
-        <v>3.93317262287604</v>
+        <v>63.731846066876003</v>
       </c>
       <c r="AP57" s="4">
-        <v>3.8669081837055099</v>
+        <v>63.464255035705499</v>
       </c>
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.25">
@@ -7289,10 +7289,10 @@
         <v>6.7108860999999895E-2</v>
       </c>
       <c r="AO58" s="4">
-        <v>3.8669081837055099</v>
+        <v>63.464255035705499</v>
       </c>
       <c r="AP58" s="4">
-        <v>3.7360681552247099</v>
+        <v>62.930761823224699</v>
       </c>
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.25">
@@ -7390,10 +7390,10 @@
         <v>0.13421772500000001</v>
       </c>
       <c r="AO59" s="4">
-        <v>3.7360681552247099</v>
+        <v>62.930761823224699</v>
       </c>
       <c r="AP59" s="4">
-        <v>3.4811434977041702</v>
+        <v>61.870530797704099</v>
       </c>
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.25">
@@ -7491,10 +7491,10 @@
         <v>0.26843545299999999</v>
       </c>
       <c r="AO60" s="4">
-        <v>3.4811434977041702</v>
+        <v>61.870530797704099</v>
       </c>
       <c r="AP60" s="4">
-        <v>2.9983157804273102</v>
+        <v>59.7770903444273</v>
       </c>
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.25">
@@ -7592,10 +7592,10 @@
         <v>0.53687090900000001</v>
       </c>
       <c r="AO61" s="4">
-        <v>2.9983157804273102</v>
+        <v>59.7770903444273</v>
       </c>
       <c r="AP61" s="4">
-        <v>2.1407467369304798</v>
+        <v>55.698295828930398</v>
       </c>
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.25">
@@ -7675,10 +7675,10 @@
         <v>1.073741821</v>
       </c>
       <c r="AO62" s="4">
-        <v>2.1407467369304798</v>
+        <v>55.698295828930398</v>
       </c>
       <c r="AP62" s="4">
-        <v>0.85795421416439599</v>
+        <v>47.973052362164303</v>
       </c>
     </row>
     <row r="63" spans="1:42" x14ac:dyDescent="0.25">
@@ -7778,10 +7778,10 @@
         <v>2.1474836449999999</v>
       </c>
       <c r="AO63" s="4">
-        <v>0.85795421416439599</v>
+        <v>47.973052362164303</v>
       </c>
       <c r="AP63" s="4">
-        <v>2.1751425542486099E-2</v>
+        <v>34.251947685542397</v>
       </c>
     </row>
     <row r="64" spans="1:42" x14ac:dyDescent="0.25">
@@ -7879,13 +7879,13 @@
         <v>4.294967293</v>
       </c>
       <c r="AO64" s="4">
-        <v>2.1751425542486099E-2</v>
+        <v>34.251947685542397</v>
       </c>
       <c r="AP64" s="4">
-        <v>5.2668748759397497</v>
-      </c>
-    </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
+        <v>13.727267359939701</v>
+      </c>
+    </row>
+    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="4">
         <v>2</v>
@@ -7970,12 +7970,23 @@
       <c r="AF65" s="4">
         <v>-7.94715172792512</v>
       </c>
-      <c r="AL65" s="9"/>
-      <c r="AM65" s="9"/>
-      <c r="AN65" s="9"/>
-      <c r="AO65" s="9"/>
-    </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AL65" s="4">
+        <v>32</v>
+      </c>
+      <c r="AM65" s="4">
+        <v>4.294967293</v>
+      </c>
+      <c r="AN65" s="4">
+        <v>8.5899345890000003</v>
+      </c>
+      <c r="AO65" s="4">
+        <v>13.727267359939701</v>
+      </c>
+      <c r="AP65" s="4">
+        <v>0.34802281929860102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="4">
         <v>3</v>
@@ -8060,12 +8071,23 @@
       <c r="AF66" s="4">
         <v>-7.9785081034253498</v>
       </c>
-      <c r="AL66" s="9"/>
-      <c r="AM66" s="9"/>
-      <c r="AN66" s="9"/>
-      <c r="AO66" s="9"/>
-    </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AL66" s="4">
+        <v>33</v>
+      </c>
+      <c r="AM66" s="4">
+        <v>8.5899345890000003</v>
+      </c>
+      <c r="AN66" s="4">
+        <v>17.179869181000001</v>
+      </c>
+      <c r="AO66" s="4">
+        <v>0.34802281929860102</v>
+      </c>
+      <c r="AP66" s="4">
+        <v>84.269998180273603</v>
+      </c>
+    </row>
+    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="4">
         <v>4</v>
@@ -8155,7 +8177,7 @@
       <c r="AN67" s="9"/>
       <c r="AO67" s="9"/>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="4">
         <v>5</v>
@@ -8245,7 +8267,7 @@
       <c r="AN68" s="9"/>
       <c r="AO68" s="9"/>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="4">
         <v>6</v>
@@ -8331,7 +8353,7 @@
         <v>-7.9911628562745003</v>
       </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="4">
         <v>7</v>
@@ -8417,7 +8439,7 @@
         <v>-7.9957401918384399</v>
       </c>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="4">
         <v>8</v>
@@ -8503,7 +8525,7 @@
         <v>-7.9962157215559602</v>
       </c>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="4">
         <v>9</v>
@@ -8589,7 +8611,7 @@
         <v>-7.9979641946418001</v>
       </c>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="4">
         <v>10</v>
@@ -8675,7 +8697,7 @@
         <v>-7.9990448104346603</v>
       </c>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="4">
         <v>11</v>
@@ -8761,7 +8783,7 @@
         <v>-7.9991571416318896</v>
       </c>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="4">
         <v>12</v>
@@ -8847,7 +8869,7 @@
         <v>-7.9995699049588804</v>
       </c>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="4">
         <v>13</v>
@@ -8933,7 +8955,7 @@
         <v>-7.9998250067258798</v>
       </c>
     </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="4">
         <v>14</v>
@@ -9019,7 +9041,7 @@
         <v>-7.9998515286424601</v>
       </c>
     </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="4">
         <v>15</v>
@@ -9105,7 +9127,7 @@
         <v>-7.9998679205229104</v>
       </c>
     </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="4">
         <v>16</v>
@@ -9173,7 +9195,7 @@
       <c r="AE79" s="4"/>
       <c r="AF79" s="4"/>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="4">
         <v>17</v>
@@ -16281,21 +16303,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F4FB4EE7FDC5643885E66F650B50041" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="90504aa7ed3606465a436a5d9bd20594">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="aa74878a-57c9-44e2-8083-cc193224d86e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="47de56ad90df3c5209bcccc912f8a6ec" ns3:_="">
     <xsd:import namespace="aa74878a-57c9-44e2-8083-cc193224d86e"/>
@@ -16479,31 +16486,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E2CA3BC-3E1A-4A85-8426-9E75DEC827E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="aa74878a-57c9-44e2-8083-cc193224d86e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{005800D1-8F32-46F8-8AA2-E8301B9D19F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A80570C-DBD3-45A2-A829-BDDF854134C1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16519,4 +16517,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{005800D1-8F32-46F8-8AA2-E8301B9D19F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E2CA3BC-3E1A-4A85-8426-9E75DEC827E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="aa74878a-57c9-44e2-8083-cc193224d86e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>